--- a/spreadsheet/macrofree/datasecurity_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.ko.xlsx
@@ -1101,18 +1101,18 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 서비스에 인증</t>
+          <t>전송 중인 민감한 데이터 암호화</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID를 기본 인증 방법으로 사용하여 데이터 평면 액세스를 제어합니다.</t>
+          <t>기본 배포에서 사용하도록 설정되므로 추가 구성이 필요하지 않습니다.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/transport-layer-security-configure-minimum-version</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1136,7 +1136,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
+          <t>21d41d25-00c8-417b-b9ea-c41fd3390798</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,17 +1153,17 @@
       <c r="B10" s="21" t="inlineStr"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>높은 권한이 부여된/관리 사용자를 분리 및 제한하고 MFA 및 조건부 정책을 사용하도록 설정합니다.</t>
+          <t>관리 ID를 사용하여 서비스에 인증</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>일상적인 관리 작업에 필요하지 않은 경우 긴급 용도로만 로컬 관리자 계정을 사용하지 않도록 설정하거나 제한합니다.</t>
+          <t>Microsoft Entra ID를 기본 인증 방법으로 사용하여 데이터 평면 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1172,13 +1172,17 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="n"/>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
+          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1189,20 +1193,16 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC를 사용하여 스토리지에 대한 액세스를 제어하고 Synapse RBAC를 사용하여 팀의 가상 사용자에 따라 작업 영역 수준에서 액세스를 제어하여 데이터 및 컴퓨팅에 대한 액세스를 세분화합니다.</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Azure Synapse에는 Synapse Studio의 다양한 측면을 관리하기 위한 Synapse RBAC(역할 기반 액세스 제어) 역할도 포함되어 있습니다. 이러한 기본 제공 역할을 활용하여 사용자, 그룹 또는 기타 보안 주체에 권한을 할당하여 코드 아티팩트를 게시하고, 게시된 코드 아티팩트를 나열하거나 액세스할 수 있는 사용자를 관리하고, Apache Spark 풀 및 통합 런타임에서 코드를 실행하고, 자격 증명으로 보호되는 연결된(데이터) 서비스에 액세스하고, 작업 실행을 모니터링 또는 취소하고, 작업 출력 및 실행 로그를 검토합니다.</t>
-        </is>
-      </c>
+          <t>기본적으로 미사용 데이터 암호화 사용Enable data at rest encryption by default</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1214,17 +1214,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
+          <t>bc288bec-6a17-4ca7-8444-51e1add3452a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1241,13 +1237,17 @@
       <c r="B12" s="21" t="inlineStr"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>전용 SQL 풀에서 SQL 워크로드에 RLS, CLS 및 데이터 마스킹을 구현하여 보안 계층을 추가합니다.</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>높은 권한이 부여된/관리 사용자를 분리 및 제한하고 MFA 및 조건부 정책을 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>일상적인 관리 작업에 필요하지 않은 경우 긴급 용도로만 로컬 관리자 계정을 사용하지 않도록 설정하거나 제한합니다.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,17 +1256,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
+          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1277,18 +1273,18 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>관리되는 vnet 작업 영역을 사용하여 공용 인터넷을 통한 액세스 제한</t>
+          <t>필요한 경우 미사용 데이터 암호화에서 고객 관리형 키 옵션을 사용합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse 작업 영역을 만들 때 Microsoft Azure Virtual Network에 연결하도록 선택할 수 있습니다. 작업 영역과 연결된 Virtual Network는 Azure Synapse에서 관리됩니다. 이 Virtual Network를 관리형 작업 영역 Virtual Network라고 합니다. 작업 영역을 배포할 때 선택할 수 있습니다</t>
+          <t>Keyvaults를 사용하여 CMK 저장</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1304,7 +1300,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/configure-customer-managed-key?tabs=Key-Vault</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1312,7 +1308,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
+          <t>ec723923-7a15-41c5-ab5e-401915387e5c</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1323,18 +1319,18 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>외부 서비스에 연결하고 공용 액세스를 사용하지 않도록 프라이빗 엔드포인트를 구성합니다.</t>
+          <t>Azure RBAC를 사용하여 스토리지에 대한 액세스를 제어하고 Synapse RBAC를 사용하여 팀의 가상 사용자에 따라 작업 영역 수준에서 액세스를 제어하여 데이터 및 컴퓨팅에 대한 액세스를 세분화합니다.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>중요한 데이터를 보호하려면 작업 영역 엔드포인트에 대한 공용 액세스를 완전히 사용하지 않도록 설정하는 것이 좋습니다. 이렇게 하면 프라이빗 엔드포인트를 통해서만 모든 작업 영역 엔드포인트에 액세스할 수 있습니다.</t>
+          <t>Azure Synapse에는 Synapse Studio의 다양한 측면을 관리하기 위한 Synapse RBAC(역할 기반 액세스 제어) 역할도 포함되어 있습니다. 이러한 기본 제공 역할을 활용하여 사용자, 그룹 또는 기타 보안 주체에 권한을 할당하여 코드 아티팩트를 게시하고, 게시된 코드 아티팩트를 나열하거나 액세스할 수 있는 사용자를 관리하고, Apache Spark 풀 및 통합 런타임에서 코드를 실행하고, 자격 증명으로 보호되는 연결된(데이터) 서비스에 액세스하고, 작업 실행을 모니터링 또는 취소하고, 작업 출력 및 실행 로그를 검토합니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1350,7 +1346,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1358,7 +1354,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
+          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1369,21 +1365,21 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>공용 액세스를 사용하도록 설정하는 경우 IP 방화벽 규칙을 구성하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>공용 액세스를 사용하도록 설정해야 하는 경우 지정된 공용 IP 주소 목록에서만 인바운드 연결을 허용하도록 IP 방화벽 규칙을 구성하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="n"/>
+          <t>전용 SQL 풀에서 SQL 워크로드에 RLS, CLS 및 데이터 마스킹을 구현하여 보안 계층을 추가합니다.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -1392,7 +1388,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1400,7 +1396,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
+          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1417,10 +1413,14 @@
       <c r="B16" s="21" t="inlineStr"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>회사 네트워크를 벗어나지 않아야 하는 중요한 데이터로 작업하는 경우 VN에 SHIR VM을 배포합니다.</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>관리되는 vnet 작업 영역을 사용하여 공용 인터넷을 통한 액세스 제한</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Azure Synapse 작업 영역을 만들 때 Microsoft Azure Virtual Network에 연결하도록 선택할 수 있습니다. 작업 영역과 연결된 Virtual Network는 Azure Synapse에서 관리됩니다. 이 Virtual Network를 관리형 작업 영역 Virtual Network라고 합니다. 작업 영역을 배포할 때 선택할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1434,7 +1434,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1442,7 +1442,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
+          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1453,23 +1453,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>DEP(데이터 반출 보호) 사용</t>
+          <t>Microsoft Entra ID를 기본 인증 방법으로 사용하고 가능한 경우 로컬 액세스를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>이 작업은 작업 영역을 배포할 때만 수행할 수 있지만 PyPI와 같은 공용 리포지토리에서 설치된 Python 라이브러리는 지원되지 않습니다. (활성화하기 전에 제한 사항에 대해 생각하십시오)</t>
+          <t>Microsoft Entra ID를 기본 인증 방법으로 사용합니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1478,17 +1478,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
+          <t>a9c26d9c-42bb-45bd-8c69-99a246e3389a</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1499,18 +1495,18 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>작업 영역에 대한 고객 관리형 키를 사용한 미사용 데이터 암호화Data Encryption at rest using Customer managed Keys for workspace</t>
+          <t>외부 서비스에 연결하고 공용 액세스를 사용하지 않도록 프라이빗 엔드포인트를 구성합니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>첫 번째 암호화 계층은 Microsoft 관리형 키에 의해 수행되며, 고객 관리형 키를 사용하여 두 번째 암호화 계층을 추가할 수 있습니다</t>
+          <t>중요한 데이터를 보호하려면 작업 영역 엔드포인트에 대한 공용 액세스를 완전히 사용하지 않도록 설정하는 것이 좋습니다. 이렇게 하면 프라이빗 엔드포인트를 통해서만 모든 작업 영역 엔드포인트에 액세스할 수 있습니다.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1526,7 +1522,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1534,7 +1530,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
+          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1545,18 +1541,18 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">전송 중 데이터 암호화 </t>
+          <t>관리 ID를 사용하여 서비스에 인증</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse는 TLS를 활용하여 이동 중인 데이터가 암호화되도록 합니다. SQL 전용 풀은 암호화를 위해 TLS 1.0, TLS 1.1 및 TLS 1.2 버전을 지원하며, Microsoft에서 제공하는 드라이버는 기본적으로 TLS 1.2를 사용합니다. 서버리스 SQL 풀 및 Apache Spark 풀은 모든 아웃바운드 연결에 TLS 1.2를 사용합니다.</t>
+          <t>Microsoft Entra ID를 기본 인증 방법으로 사용합니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1570,17 +1566,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
+          <t>7e42c77d-78cb-46a2-8ad1-9f916e698d8f</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1591,38 +1583,38 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault에 암호, secerts 및 키 저장Store passwords, secerts and keys in Azure key vault</t>
+          <t>공용 액세스를 사용하도록 설정하는 경우 IP 방화벽 규칙을 구성하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Keyvaults를 사용하여 비밀 및 자격 증명 저장</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
+          <t>공용 액세스를 사용하도록 설정해야 하는 경우 지정된 공용 IP 주소 목록에서만 인바운드 연결을 허용하도록 IP 방화벽 규칙을 구성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+        </is>
+      </c>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
+          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1631,18 +1623,18 @@
       <c r="P20" s="25" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
       <c r="B21" s="21" t="inlineStr"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>파이프라인 활동에서 Azure Key Vault 비밀 사용Use Azure Key Vault secrets in pipeline activities</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Azure Key Vault에 자격 증명 또는 비밀 값을 저장하고 파이프라인 실행 중에 사용하여 활동에 전달할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>데이터 플레인에 대한 액세스를 제한하는 조건부 액세스 정책 구성Configure conditional access policies to restrict access on the Data plane</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1654,17 +1646,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
+          <t>adfe27bd-e187-401a-a352-baa9b68a088c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1675,23 +1663,19 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 로컬 사용자 사용 제한</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>데이터 플레인 액세스에 대한 로컬 인증 방법의 사용을 제한합니다. 대신 Microsoft Entra ID를 기본 인증 방법으로 사용하여 데이터 평면 액세스를 제어합니다.</t>
-        </is>
-      </c>
+          <t>회사 네트워크를 벗어나지 않아야 하는 중요한 데이터로 작업하는 경우 VN에 SHIR VM을 배포합니다.</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1700,13 +1684,17 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+        </is>
+      </c>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
+          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1723,17 +1711,17 @@
       <c r="B23" s="21" t="inlineStr"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 서비스에 인증</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 크레센셜을 저장합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하면 자격 증명을 관리할 필요가 없습니다. 관리 ID는 Microsoft Entra 인증을 지원하는 리소스에 연결할 때 서비스 인스턴스에 대한 ID를 제공합니다.</t>
+          <t>키 및 인증서 노출 제한</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1742,17 +1730,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
+          <t>9a80822b-8eb9-4d1b-a77f-26e5e6beba8e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1763,23 +1747,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>높은 권한이 부여된/관리 사용자를 분리 및 제한하고 MFA 및 조건부 정책을 사용하도록 설정합니다.</t>
+          <t>DEP(데이터 반출 보호) 사용</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>일상적인 관리 작업에 필요하지 않은 경우 긴급 용도로만 로컬 관리자 계정을 사용하지 않도록 설정하거나 제한합니다.</t>
+          <t>이 작업은 작업 영역을 배포할 때만 수행할 수 있지만 PyPI와 같은 공용 리포지토리에서 설치된 Python 라이브러리는 지원되지 않습니다. (활성화하기 전에 제한 사항에 대해 생각하십시오)</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1788,13 +1772,17 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
+        </is>
+      </c>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
+          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1805,19 +1793,19 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>공용 인터넷을 통한 액세스를 비활성화하고 방화벽 규칙 또는 신뢰할 수 있는 서비스 규칙을 구성합니다.</t>
+          <t>높은 권한이 있는 사용자/관리 사용자 분리 및 제한</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1832,7 +1820,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
+          <t>d4f3437c-c336-4d81-9f27-a71efe1b9b5d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1843,16 +1831,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>회사 네트워크를 벗어나지 않아야 하는 중요한 데이터로 작업하는 경우 VN에 SHIR VM을 배포합니다.</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>SAS(공유 액세스 서명)를 사용하여 Event Hubs 리소스에 대한 액세스를 인증하고 로컬 사용자를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>Event Hubs 네임스페이스를 만들면 네임스페이스에 대해 RootManageSharedAccessKey라는 정책 규칙이 자동으로 만들어집니다. 이 정책에는 전체 네임스페이스에 대한 관리 권한이 있습니다. 이 규칙을 관리 루트 계정처럼 취급하고 응용 프로그램에서 사용하지 않는 것이 좋습니다. PowerShell 또는 Azure CLI를 통해 포털의 네임스페이스에 대한 구성 탭에서 추가 정책 규칙을 만들 수 있습니다. 로컬 인증 방법 또는 계정을 사용하지 말고 가능한 한 사용하지 않도록 설정해야 합니다. 대신 가능한 경우 Azure AD를 사용하여 인증합니다.</t>
+        </is>
+      </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -1864,13 +1856,17 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authenticate-shared-access-signature</t>
+        </is>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
+          <t>9de0d5d7-21d4-41d2-900c-817bf9eac41f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1881,18 +1877,18 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>관리형 vnet IR을 사용하여 Azure Integration Runtime에 대한 공용 인터넷을 통한 액세스 제한</t>
+          <t xml:space="preserve">Azure RBAC를 사용하여 액세스 세분화 </t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Data Factory 관리 가상 네트워크 내에서 Azure 통합 런타임을 만들 때 통합 런타임은 관리되는 가상 네트워크로 프로비전됩니다. 프라이빗 엔드포인트를 사용하여 지원되는 데이터 저장소에 안전하게 연결합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어)를 사용하여 기본 제공 역할 할당을 통해 Azure 리소스 액세스를 관리합니다. Azure RBAC 역할은 사용자, 그룹, 서비스 주체 및 관리 ID에 할당할 수 있습니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -1906,12 +1902,16 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authorize-access-azure-active-directory</t>
+        </is>
+      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
+          <t>387e5ced-127d-4d14-8b06-b20c6999a646</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1922,18 +1922,18 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>관리형 Azure IR을 사용하여 리소스에 연결하도록 관리형 프라이빗 엔드포인트 구성</t>
+          <t>작업 영역에 대한 고객 관리형 키를 사용한 미사용 데이터 암호화Data Encryption at rest using Customer managed Keys for workspace</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>관리형 프라이빗 엔드포인트는 Azure 리소스에 대한 프라이빗 링크를 설정하는 Data Factory 관리형 가상 네트워크에서 만든 프라이빗 엔드포인트입니다. Data Factory는 사용자를 대신하여 이러한 프라이빗 엔드포인트를 관리합니다.</t>
+          <t>첫 번째 암호화 계층은 Microsoft 관리형 키에 의해 수행되며, 고객 관리형 키를 사용하여 두 번째 암호화 계층을 추가할 수 있습니다</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1949,14 +1949,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
+          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1965,16 +1965,20 @@
       <c r="P28" s="25" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
       <c r="B29" s="21" t="inlineStr"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>고객 Vnet 및 데이터 팩터리의 원본에 연결하도록 Private Links 구성</t>
+          <t>공용 네트워크 액세스 사용 안 함</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Azure Private Link를 사용하면 프라이빗 엔드포인트를 통해 Azure의 다양한 PaaS(Platform as a Service) 배포에 연결할 수 있습니다. 프라이빗 엔드포인트는 특정 가상 네트워크 및 서브넷 내의 개인 IP 주소입니다</t>
+          <t>서비스는 서비스 수준 IP ACL 필터링 규칙(NSG 또는 Azure Firewall 아님)을 사용하거나 '공용 네트워크 액세스 사용 안 함' 토글 스위치를 사용하여 공용 네트워크 액세스를 사용하지 않도록 설정할 수 있도록 지원합니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -1988,16 +1992,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
+          <t>f3389a7e-42c7-48e7-ac06-a62a2194956e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2014,12 +2014,12 @@
       <c r="B30" s="21" t="inlineStr"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 관리형 키를 통한 미사용 데이터 암호화</t>
+          <t xml:space="preserve">전송 중 데이터 암호화 </t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>이것이 기본 설정입니다</t>
+          <t>Azure Synapse는 TLS를 활용하여 이동 중인 데이터가 암호화되도록 합니다. SQL 전용 풀은 암호화를 위해 TLS 1.0, TLS 1.1 및 TLS 1.2 버전을 지원하며, Microsoft에서 제공하는 드라이버는 기본적으로 TLS 1.2를 사용합니다. 서버리스 SQL 풀 및 Apache Spark 풀은 모든 아웃바운드 연결에 TLS 1.2를 사용합니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2033,12 +2033,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
+          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2049,20 +2053,16 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 관리형 키를 통한 전송 중 데이터 암호화</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>이것이 기본 설정입니다</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Vnet을 사용하여 제한된 네트워크를 통한 트래픽 격리 </t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2079,7 +2079,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
+          <t>6a8dc4a2-fe27-4b2e-8870-1a1352beedf7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2096,17 +2096,17 @@
       <c r="B32" s="21" t="inlineStr"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>BYOK에 의한 전송 중 데이터 암호화(고객 관리형 키)</t>
+          <t>Azure Key Vault에 암호, secerts 및 키 저장Store passwords, secerts and keys in Azure key vault</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>고객 관리형 키를 지정하면 Data Factory는 팩터리 시스템 키와 CMK를 모두 사용하여 고객 데이터를 암호화합니다. 둘 중 하나라도 누락되면 데이터 및 공장에 대한 액세스가 거부됩니다.</t>
+          <t>Keyvaults를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2115,17 +2115,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
+          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2136,19 +2132,19 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault에 암호, 비밀 저장Store passwords, secrets in Azure Key Vault</t>
+          <t>Private Link 기능을 지원하는 모든 Azure 리소스에 대한 프라이빗 엔드포인트를 배포하여 리소스에 대한 프라이빗 액세스 지점을 설정합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2159,7 +2155,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/private-link-service</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2167,7 +2163,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
+          <t>9b488dee-c496-42cc-9cd2-1bf77f26e5e6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2176,11 +2172,7 @@
       <c r="P33" s="25" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>데이터 보호</t>
-        </is>
-      </c>
+      <c r="A34" s="21" t="inlineStr"/>
       <c r="B34" s="21" t="inlineStr"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
@@ -2213,7 +2205,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
+          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2230,12 +2222,12 @@
       <c r="B35" s="21" t="inlineStr"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure Data Factory에서 SHIR 데이터 저장소를 사용하여 온-프레미스에 대한 자격 증명 암호화</t>
+          <t>작업 영역 역할을 사용하여 사용자에게 데이터에 대한 액세스 권한 제공</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>자체 호스팅 통합 런타임이 있는 컴퓨터에서 온-프레미스 데이터 저장소(중요한 정보가 있는 연결된 서비스)에 대한 자격 증명을 암호화하고 저장할 수 있습니다.</t>
+          <t>Fabric은 작업 영역을 사용하여 데이터 액세스를 제어합니다. 작업공간에서 데이터는 패브릭 항목의 형태로 표시되며, 사용자는 작업공간에 대한 액세스 권한을 부여하지 않는 한 항목(데이터)을 보거나 사용할 수 없습니다. 작업 영역 및 항목 권한에 대한 자세한 내용은 사용 권한 모델에서 확인할 수 있습니다.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2251,7 +2243,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+          <t>https://learn.microsoft.com/fabric/security/permission-model</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2259,7 +2251,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
+          <t>b3bed3d5-f353-47c1-946d-c56028a71ffe</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2270,16 +2262,20 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>컨트롤 플레인 및 데이터 플레인에서 Microsoft Purview를 관리하기 위한 역할 및 책임 정의</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n"/>
+          <t xml:space="preserve">Onelake에서 RBAC를 사용하여 테이블/파일 Onelake의 데이터에 대한 세분화된 액세스를 제공합니다. </t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>OneLake RBAC는 역할 할당을 사용하여 구성원에게 권한을 적용합니다.</t>
+        </is>
+      </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2291,13 +2287,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>1bd05dd2-e0d5-4d77-8d41-e3611cc57b4a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2308,18 +2308,18 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure 구독(컨트롤 플레인) 내에서 Microsoft Purview를 배포하고 관리하는 데 필요한 역할 및 작업 정의</t>
+          <t>바로 가기를 사용하는 경우 사용자의 사용자 ID는 바로 가기의 대상 위치에도 액세스할 수 있어야 합니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>이를 위해 Azure RBAC를 사용합니다.</t>
+          <t>바로 가기의 대상 위치와 원본 위치 모두에서 사용자의 액세스를 고려합니다.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2335,15 +2335,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I37" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model#shortcuts</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8126504b-b47a-4393-a080-427294798b15</t>
+          <t>4b1410d4-3958-498c-8288-b3c6a57cfc64</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2354,18 +2358,18 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview를 사용하여 데이터 관리 및 거버넌스를 수행하는 데 필요한 역할과 작업을 정의합니다. (데이터 맵 및 데이터 카탈로그에 대한 데이터 평면)</t>
+          <t>작업 영역 수준 역할을 사용자에게 제공하는 것을 제한하는 대신 사용자에게만 항목을 공유합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>이를 위해 Microsoft Purview 역할을 사용합니다.</t>
+          <t>모든 사용자가 역할을 사용하여 전체 워크스페이스에 액세스할 필요가 있는 것은 아니므로 대신 전체 워크스페이스에 대한 역할 부여를 제한하고 항목 공유 기능 또는 Fabric의 관리 권한을 사용하여 사용자에게만 항목을 공유합니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2381,15 +2385,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/get-started/share-items</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
+          <t>4451e1a3-d345-43a3-a763-9637a552d5c1</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2400,16 +2408,20 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>개별 사용자에게 역할을 할당하는 대신 Microsoft Entra 그룹에 역할을 할당합니다.</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="n"/>
+          <t>웨어하우스 및 SQL 분석 엔드포인트에서 RLS, CLS 및 동적 데이터 마스킹을 정의하여 데이터에 대한 액세스를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>RLS, CLS 및 동적 데이터 마스킹과 같은 기능을 사용하여 SQL 워크로드에 대한 데이터 보안 요구 사항을 강화합니다.</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2421,13 +2433,21 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/data-warehouse/tutorial-row-level-security</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
+          <t>5e401965-387e-45ce-b127-dd142b06b20c</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2438,16 +2458,20 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory 권한 관리를 사용하여 액세스 패키지를 통해 Microsoft Entra 그룹에 대한 사용자 액세스를 매핑합니다.</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n"/>
+          <t>Power BI의 의미 체계 모델에서 RLS 및 OLS를 정의하여 데이터에 대한 액세스를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>Power BI에서 RLS 및 OLS와 같은 기능을 사용하여 의미 체계 모델에 더 많은 보안 기능을 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2461,15 +2485,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/security/service-admin-row-level-security</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
+          <t>6999a646-f338-49a7-b42c-78e78c06a62a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2480,19 +2508,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview 사용자, 특히 컬렉션 관리자, 데이터 원본 관리자 또는 데이터 큐레이터와 같은 권한 있는 역할이 있는 사용자에 대해 다단계 인증을 적용합니다.</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="n"/>
+          <t>미사용 데이터 암호화</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>Fabric에서 OneLake에 저장된 모든 데이터는 미사용 시 암호화됩니다</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2502,12 +2534,16 @@
       </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
+          <t>2194956e-6a8d-4c4a-8fe2-7b2e28701a13</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2518,19 +2554,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID를 사용하여 모든 사용자, Entra에 등록된 보안 그룹, 서비스 주체 및 Microsoft Purview의 컬렉션 내 관리 ID에 인증 및 권한 부여를 제공합니다.</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>전송 중인 데이터 암호화</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft 서비스 간에 공용 인터넷을 통해 전송되는 데이터는 항상 TLS 1.2 이상으로 암호화됩니다. 패브릭은 가능할 때마다 TLS 1.3으로 협상합니다.</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2540,12 +2580,16 @@
       </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+          <t>52beedf7-9b48-48de-bc49-62cc3cd21bf7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2562,10 +2606,14 @@
       <c r="B43" s="21" t="inlineStr"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Least Privilege 모델을 정의하고 권한 있는 계정의 노출을 줄입니다.</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="n"/>
+          <t>필요한 경우 로컬 사용자 사용 제한</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>데이터 플레인 액세스에 대한 로컬 인증 방법의 사용을 제한합니다. 대신 Microsoft Entra ID를 기본 인증 방법으로 사용하여 데이터 평면 액세스를 제어합니다.</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -2583,7 +2631,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2594,16 +2642,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Private Link 서비스를 사용하여 엔드투엔드 네트워크 격리를 사용하도록 설정합니다. (Microsoft Purview 데이터 맵)</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>Microsoft Entra ID를 기본 인증 방법으로 사용</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>아무 것도 할 필요가 없습니다. Fabric에 대한 모든 연결 요청은 Microsoft Entra ID로 인증되므로 사용자는 회사 사무실, 집에서 작업 할 때 또는 원격 위치에서 Fabric에 안전하게 연결할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2615,17 +2667,17 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+          <t>7f26e5e6-b3be-4d3d-9f35-37c1346dc560</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2636,16 +2688,20 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview 방화벽을 사용하여 공용 액세스를 사용하지 않도록 설정합니다. (Microsoft Purview 데이터 맵)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="n"/>
+          <t>관리 ID를 사용하여 서비스에 인증</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="inlineStr">
+        <is>
+          <t>관리 ID를 사용하면 자격 증명을 관리할 필요가 없습니다. 관리 ID는 Microsoft Entra 인증을 지원하는 리소스에 연결할 때 서비스 인스턴스에 대한 ID를 제공합니다.</t>
+        </is>
+      </c>
       <c r="E45" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2659,14 +2715,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>418db612-8126-4504-ab47-a393a0804272</t>
+          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2677,16 +2733,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure 데이터 원본 프라이빗 엔드포인트, Microsoft Purview 프라이빗 엔드포인트 및 자체 호스팅 런타임 VM이 배포되는 서브넷에 대한 NSG(네트워크 보안 그룹) 규칙을 배포합니다. (Microsoft Purview 데이터 맵)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="n"/>
+          <t>작업 영역 ID를 사용하여 서비스에 인증</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="inlineStr">
+        <is>
+          <t>Fabric 워크스페이스 ID는 Fabric 워크스페이스와 연관될 수 있는 자동으로 관리되는 서비스 프린시펄입니다. 작업 영역 ID는 내 작업 영역을 제외한 모든 작업 영역의 작업 영역 설정에서 만들 수 있습니다. 작업 영역 ID에는 작업 영역 기여자 역할이 자동으로 할당되고 작업 영역 항목에 액세스할 수 있습니다.  제한 사항: 작업 영역 ID를 인증 방법으로 사용할 때 바로 가기 대상에 쓰기가 실패합니다. workspace-identity-authentication을 사용한 연결은 Onelake 바로 가기 및 데이터 파이프라인에서만 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2700,7 +2760,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2708,7 +2768,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+          <t>28a71ffe-1bd0-45dd-8e0d-5d771d41e361</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2719,19 +2779,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>네트워크 검사 및 네트워크 필터링을 위한 Azure Firewall과 같은 네트워크 가상 어플라이언스에서 관리하는 프라이빗 엔드포인트를 사용하여 Microsoft Purview를 구현합니다. (Microsoft Purview 데이터 맵)</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="n"/>
+          <t>높은 권한이 부여된/관리 사용자를 분리 및 제한하고 MFA 및 조건부 정책을 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>일상적인 관리 작업에 필요하지 않은 경우 긴급 용도로만 로컬 관리자 계정을 사용하지 않도록 설정하거나 제한합니다.</t>
+        </is>
+      </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2740,17 +2804,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2761,18 +2821,18 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview 계정에 대한 프라이빗 엔드포인트를 배포하여 또 다른 보안 계층을 추가하면 가상 네트워크 내에서 시작된 클라이언트 호출만 Microsoft Purview 계정에 액세스할 수 있습니다</t>
+          <t>스토리지 계정에 대한 RBAC 역할을 관리 ID에 제공하여 성공적인 연결을 만듭니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>이 프라이빗 엔드포인트는 포털 프라이빗 엔드포인트의 필수 구성 요소이기도 합니다. 프라이빗 네트워크를 사용하여 Microsoft Purview 거버넌스 포털에 연결할 수 있도록 하려면 Microsoft Purview 포털 프라이빗 엔드포인트가 필요합니다. Microsoft Purview는 수집 프라이빗 엔드포인트를 사용하여 Azure 또는 온-프레미스 환경에서 데이터 원본을 검사할 수 있습니다. 프라이빗 엔드포인트 사용에 대한 제한 사항 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+          <t>스토리지 계정에 대한 ID 권한 부여Grant the identity permissions on the storage account</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -2788,14 +2848,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity-authenticate#step-2-grant-the-identity-permissions-on-the-storage-account</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+          <t>1cc57b4a-4b14-410d-9395-898c2288b3c6</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2812,14 +2872,10 @@
       <c r="B49" s="21" t="inlineStr"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview 방화벽을 사용하여 공용 액세스 차단</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. 검토해야 할 제한 사항: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
-        </is>
-      </c>
+          <t>공용 인터넷을 통한 액세스를 비활성화하고 방화벽 규칙 또는 신뢰할 수 있는 서비스 규칙을 구성합니다.</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2836,7 +2892,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2847,16 +2903,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>네트워크 보안 그룹을 사용하여 Azure 가상 네트워크의 Azure 리소스에서 들어오고 나가는 네트워크 트래픽 필터링Use Network Security Groups to filter network traffic into Azure resources in an Azure virtual network</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="n"/>
+          <t xml:space="preserve">방화벽 뒤의 스토리지 계정에 액세스하기 위해 신뢰할 수 있는 작업 영역 액세스 구성Configure trusted workspace access to access storage account behind firewall </t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>작업 영역 ID가 있는 패브릭 작업 영역은 OneLake 바로 가기에 대한 신뢰할 수 있는 작업 영역 액세스를 통해 방화벽 지원 Azure Data Lake Storage Gen2 계정을 안전하게 읽거나 쓸 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2870,7 +2930,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/security-trusted-workspace-access</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -2878,7 +2938,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+          <t>a57cfc64-4451-4e1a-9d34-53a3c7639637</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2889,23 +2949,19 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">온-프레미스 vnet의 경계를 벗어날 수 없는 중요한 데이터가 있는 경우 회사 vnet 내에서 SHIR VM을 사용하여 메타데이터를 추출하는 것이 좋습니다 </t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
-        </is>
-      </c>
+          <t>회사 네트워크를 벗어나지 않아야 하는 중요한 데이터로 작업하는 경우 VN에 SHIR VM을 배포합니다.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2920,7 +2976,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2931,18 +2987,18 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC를 사용하여 스토리지 계정(MS에서 관리하지 않음)의 액세스를 의도한 사용자로만 제한합니다.</t>
+          <t>네트워크 격리가 필요한 경우 관리되는 vnet 옵션을 사용합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>메타데이터는 추출되어 Microsoft Purview 데이터 맵에 저장되며, Purview 계정에 관리 스토리지 계정을 사용하지 않는 경우 모든 사용자가 액세스할 수 있도록 열려 있으므로 적절한 RBAC를 구현하고 의도된 사용자에게만 데이터 액세스를 제한합니다. 2023년 12월 15일 이후에 배포된 계정(또는 API 버전 2023-05-01-preview 이후를 사용하여 배포된 계정)에 적용됩니다.</t>
+          <t>관리되는 가상 네트워크는 각 패브릭 작업 영역에 대해 Microsoft 패브릭에서 만들고 관리하는 가상 네트워크입니다. 관리형 가상 네트워크는 Fabric Spark 워크로드에 대한 네트워크 격리를 제공하며, 이는 컴퓨팅 클러스터가 전용 네트워크에 배포되고 더 이상 공유 가상 네트워크의 일부가 아님을 의미합니다. Fabric의 Spark 워크로드에 대해서만 지원됩니다.</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -2956,13 +3012,21 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-vnets-fabric-overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+          <t>a552d5c1-5e40-4196-9387-e5ced127dd14</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2973,16 +3037,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>미사용 데이터는 Microsoft 관리형 키로 암호화됩니다.</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="n"/>
+          <t>관리형 vnet IR을 사용하여 Azure Integration Runtime에 대한 공용 인터넷을 통한 액세스 제한</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="inlineStr">
+        <is>
+          <t>Data Factory 관리 가상 네트워크 내에서 Azure 통합 런타임을 만들 때 통합 런타임은 관리되는 가상 네트워크로 프로비전됩니다. 프라이빗 엔드포인트를 사용하여 지원되는 데이터 저장소에 안전하게 연결합니다.</t>
+        </is>
+      </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -2999,7 +3067,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3010,16 +3078,20 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>전송 중인 데이터는 TLS 1.3으로 암호화됩니다.</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="n"/>
+          <t>Azure 서비스에 액세스하도록 관리형 프라이빗 엔드포인트 구성</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="inlineStr">
+        <is>
+          <t>관리형 프라이빗 엔드포인트는 Fabric Spark 워크로드의 데이터 소스에 대한 보안 및 비공개 액세스를 허용하는 기능입니다. 스타터 풀은 관리형 PE와 함께 사용할 수 없습니다</t>
+        </is>
+      </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3031,13 +3103,21 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-private-endpoints-overview</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+          <t>6f4a0641-addd-4ea8-a477-cdeb3861bc3b</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3048,19 +3128,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>네트워크 보안</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하지 않거나 암호 필요 메서드가 없는 경우 항상 Azure Key Vault를 사용하여 모든 자격 증명을 저장합니다.</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="n"/>
+          <t>관리형 Azure IR을 사용하여 리소스에 연결하도록 관리형 프라이빗 엔드포인트 구성</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="inlineStr">
+        <is>
+          <t>관리형 프라이빗 엔드포인트는 Azure 리소스에 대한 프라이빗 링크를 설정하는 Data Factory 관리형 가상 네트워크에서 만든 프라이빗 엔드포인트입니다. Data Factory는 사용자를 대신하여 이러한 프라이빗 엔드포인트를 관리합니다.</t>
+        </is>
+      </c>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3069,12 +3153,16 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3085,16 +3173,20 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>우발적인 삭제에 대한 보호</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>리소스 잠금을 적용하여 Microsoft Purview 계정의 실수로 삭제되는 것을 방지합니다.</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="n"/>
+          <t>자신의 Azure vnet의 리소스(예: Fabric 환경에서 들어오는 트래픽)에 액세스하도록 Private Links 구성</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="inlineStr">
+        <is>
+          <t>Fabric은 가상 네트워크의 개인 IP 주소를 사용합니다. 엔드포인트를 사용하면 네트워크의 사용자가 개인 링크를 사용하여 개인 IP 주소를 통해 Fabric과 통신할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3106,12 +3198,21 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-private-links-use</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+          <t>c14aea6e-65d8-4d9a-9aec-218e6436b063</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3120,16 +3221,20 @@
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
       <c r="B57" s="21" t="inlineStr"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 Microsoft Entra 테넌트, Azure 구독 및 Microsoft Purview 계정에 대한 비상 전략을 계획합니다.</t>
+          <t>사용자가 패브릭 환경에 액세스하려는 경우 Microsoft Entra ID 조건부 액세스를 구성합니다</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+          <t>사용자 인증 시점은 IP 주소, 위치 및 관리 중인 디바이스를 포함할 수 있는 정책 집합에 따라 결정됩니다.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3145,14 +3250,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+          <t>https://learn.microsoft.com/fabric/security/security-conditional-access</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+          <t>6cb45e57-9603-4324-adf8-cc23318da611</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3163,16 +3273,20 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>추가 보안 권장 사항</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr"/>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 365 및 클라우드용 Microsoft Defender와 통합</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="n"/>
+          <t>Azure 서비스 태그를 사용하여 Microsoft 패브릭과의 연결을 사용하도록 설정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 서비스 태그는 네트워크 보안 규칙에 대한 업데이트 또는 변경의 복잡성을 최소화하기 위해 자동으로 그룹으로 관리되는 정의된 IP 주소 그룹입니다.</t>
+        </is>
+      </c>
       <c r="E58" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3184,12 +3298,21 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-service-tags</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+          <t>70265f4b-b46a-4393-af70-317294797b15</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3200,23 +3323,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr"/>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Least Privilege 모델을 정의하고 권한 있는 계정의 노출을 줄입니다.</t>
+          <t>Fabric URL을 허용 목록에 추가할 수 있습니다</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>관리자 계정을 일반 사용자 계정과 구분합니다.</t>
+          <t>선택적</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3225,12 +3348,21 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/fabric-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>78a219a4-6beb-4544-9502-4922634292bb</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3241,23 +3373,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Single Sign-On 및 통합 로그인을 구성합니다. Multi-Factor Authentication을 사용하도록 설정합니다.</t>
+          <t>허용 목록에 Power BI URL을 추가할 수 있습니다</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure Databricks는 관리자가 사용자가 Azure Databricks에 로그인할 수 있는 위치와 시기를 제어할 수 있는 Microsoft Entra ID 조건부 액세스를 지원합니다. 조건부 액세스 정책은 회사 네트워크에 대한 로그인을 제한하거나 MFA(다단계 인증)를 요구할 수 있습니다.</t>
+          <t>선택적</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3268,14 +3400,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+          <t>https://learn.microsoft.com/fabric/security/power-bi-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>528537a5-4119-4bf8-b8f5-854287d9cdc1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3286,18 +3423,18 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>토큰 관리를 사용합니다.</t>
+          <t>온-프레미스 데이터 게이트웨이 또는 Vnet 데이터 게이트웨이를 구성하고 사용하여 온-프레미스 또는 가상 네트워크 뒤의 소스에 연결합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>고객은 토큰 관리 API 또는 UI 컨트롤을 사용하여 REST API 인증을 위해 PAT(개인용 액세스 토큰)를 사용하거나 사용하지 않도록 설정하고, PAT를 사용할 수 있는 사용자를 제한하고, 새 토큰의 최대 수명을 설정하고, 기존 토큰을 관리할 수 있습니다. 보안이 매우 안전한 고객은 일반적으로 작업 영역의 새 토큰에 대한 최대 토큰 수명을 프로비전합니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다.</t>
+          <t>데이터 게이트웨이를 사용하면 Azure 및 기타 데이터 서비스를 Microsoft Fabric 및 Power Platform에 연결하여 데이터 원본과 안전하게 통신하고, 쿼리를 실행하고, 결과를 서비스로 다시 전송할 수 있습니다.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3313,14 +3450,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+          <t>https://learn.microsoft.com/data-integration/gateway/service-gateway-install</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+          <t>56cc071a-e9b1-441a-a889-535e727897e7</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3329,25 +3466,21 @@
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>ID 및 액세스 관리</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="inlineStr"/>
       <c r="B62" s="21" t="inlineStr"/>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>일반 사용자 계정과 관리자 계정 분리</t>
+          <t>고객 Vnet 및 데이터 팩터리의 원본에 연결하도록 Private Links 구성</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>Databricks 플랫폼의 일반 사용자이기도 한 Databricks 관리자가 있는 경우(예: 플랫폼을 관리하고 데이터 엔지니어링 작업도 수행하는 수석 데이터 엔지니어가 있는 경우) Databricks는 관리 작업을 위해 별도의 계정을 만드는 것이 좋습니다. Azure RBAC 모델의 일부로, 배포된 Azure Databricks 작업 영역에 대한 리소스 그룹에 대한 기여자 이상의 권한이 부여된 사용자는 해당 작업 영역에 로그인할 때 자동으로 관리자가 된다는 점에 유의해야 합니다. 따라서 위에서 설명한 것과 동일한 고려 사항을 Azure Portal 사용자에게도 적용해야 합니다.</t>
+          <t>Azure Private Link를 사용하면 프라이빗 엔드포인트를 통해 Azure의 다양한 PaaS(Platform as a Service) 배포에 연결할 수 있습니다. 프라이빗 엔드포인트는 특정 가상 네트워크 및 서브넷 내의 개인 IP 주소입니다</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3356,12 +3489,16 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3372,18 +3509,18 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>사용자 및 그룹의 SCIM 동기화.</t>
+          <t>Microsoft 관리형 키를 통한 미사용 데이터 암호화</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>SCIM(System for Cross-domain Identity Management)을 사용하면 Microsoft Entra ID에서 Azure Databricks로 사용자 및 그룹을 동기화할 수 있습니다. 이 방법에는 세 가지 주요 이점이 있습니다. 1. 사용자를 제거하면 사용자가 Databricks에서 자동으로 제거됩니다. 2. SCIM을 통해 사용자를 일시적으로 비활성화할 수도 있습니다. 고객은 계정이 손상되었을 수 있으며 조사가 필요하다고 생각하는 시나리오에 이 기능을 사용했습니다 3. 그룹이 자동으로 동기화됨 Azure Databricks에 대해 SCIM을 구성하는 방법에 대한 자세한 지침은 설명서를 참조하세요. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다</t>
+          <t>이것이 기본 설정입니다</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3397,17 +3534,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3418,18 +3551,18 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr"/>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>클러스터 생성 권한을 제한합니다.</t>
+          <t>Microsoft 관리형 키를 통한 전송 중 데이터 암호화</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>관리자는 클러스터 정책 또는 이전 클러스터 ACL을 사용하여 조직 내에서 클러스터를 생성할 수 있는 사용자 또는 그룹을 정의할 수 있습니다. 클러스터 ACL을 사용하면 지정된 클러스터에 노트북을 연결할 수 있는 사용자를 지정할 수 있습니다. 사용자가 표준 모드 클러스터에 이미 연결된 Notebook을 공유하는 경우 수신자도 해당 클러스터에서 코드를 실행할 수 있습니다. 이는 사용자 격리를 적용하는 클러스터(SQL 웨어하우스, 테이블 ACL 클러스터와의 높은 동시성, 자격 증명 통과 클러스터의 높은 동시성)에는 적용되지 않습니다. Unity 카탈로그를 사용하는 고객은 단일 사용자 클러스터를 활성화하여 격리 클러스터를 적용할 수도 있습니다.</t>
+          <t>이것이 기본 설정입니다</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3449,7 +3582,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3458,21 +3591,25 @@
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
       <c r="B65" s="21" t="inlineStr"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>작업 영역 관리자 제한</t>
+          <t>BYOK에 의한 전송 중 데이터 암호화(고객 관리형 키)</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>계정 관리자는 RestrictWorkspaceAdmins라는 작업 영역 설정을 구성하여 작업 영역 관리자가 작업 소유자를 자신으로만 변경하고 작업 실행 설정을 서비스 주체 사용자 역할이 있는 서비스 주체로 제한할 수 있습니다.</t>
+          <t>고객 관리형 키를 지정하면 Data Factory는 팩터리 시스템 키와 CMK를 모두 사용하여 고객 데이터를 암호화합니다. 둘 중 하나라도 누락되면 데이터 및 공장에 대한 액세스가 거부됩니다.</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3483,7 +3620,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3491,7 +3628,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3502,7 +3639,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr"/>
@@ -3511,11 +3648,7 @@
           <t>Azure Key Vault에 암호, 비밀 저장Store passwords, secrets in Azure Key Vault</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>고객이 Azure Key Vault를 사용하여 비밀을 저장하더라도 Azure Databricks 내에서 액세스 제어를 정의해야 합니다. 이는 Azure Databricks 작업 영역의 모든 사용자에 대한 비밀을 검색하는 데 동일한 서비스 ID가 사용되기 때문입니다.</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>높다</t>
@@ -3527,12 +3660,16 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3541,17 +3678,25 @@
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
       <c r="B67" s="21" t="inlineStr"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>키를 주기적으로 사용하는 경우 키를 재생/회전합니다.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>파이프라인 활동에서 Azure Key Vault 비밀 사용Use Azure Key Vault secrets in pipeline activities</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault에 자격 증명 또는 비밀 값을 저장하고 파이프라인 실행 중에 사용하여 활동에 전달할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3560,13 +3705,17 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3577,18 +3726,18 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스 관리</t>
+          <t>데이터 보호</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr"/>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>사용자 격리를 지원하는 클러스터를 사용합니다.</t>
+          <t>Azure Data Factory에서 SHIR 데이터 저장소를 사용하여 온-프레미스에 대한 자격 증명 암호화</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>사용자 격리가 있는 클러스터에는 각 사용자가 클러스터 호스트에서 권한이 없는 다른 사용자 계정으로 실행되는 적용이 포함됩니다. 또한 언어는 격리된 방식으로 구현할 수 있는 언어(SQL 및 Python)로 제한되며, Spark API는 격리로부터 안전하다고 생각되는 언어의 허용 목록에 있어야 합니다.</t>
+          <t>자체 호스팅 통합 런타임이 있는 컴퓨터에서 온-프레미스 데이터 저장소(중요한 정보가 있는 연결된 서비스)에 대한 자격 증명을 암호화하고 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -3602,13 +3751,17 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3625,14 +3778,10 @@
       <c r="B69" s="21" t="inlineStr"/>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>서비스 주체를 사용하여 프로덕션 작업을 실행합니다. 워크스페이스 레벨(ACL), 계정 레벨(RBAC) 및 데이터 레벨(Unity 카탈로그) 보안 컨트롤에 대한 적절한 액세스 제어 사용</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>프로덕션 워크로드를 개별 사용자 계정에 연결하는 것은 보안 모범 사례에 위배되므로 Databricks 내에서 서비스 주체를 구성하는 것이 좋습니다. 서비스 원칙은 관리자와 사용자 작업을 워크로드에서 분리하고 사용자가 조직을 떠날 경우 워크로드가 영향을 받지 않도록 합니다. Databricks를 사용하면 서비스 주체로 실행되고 서비스 주체에 대한 개인용 액세스 토큰을 생성하도록 작업을 구성할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>컨트롤 플레인 및 데이터 플레인에서 Microsoft Purview를 관리하기 위한 역할 및 책임 정의</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3644,17 +3793,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3665,23 +3810,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr"/>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 데이터를 DBFS에 저장하지 마십시오.</t>
+          <t>Azure 구독(컨트롤 플레인) 내에서 Microsoft Purview를 배포하고 관리하는 데 필요한 역할 및 작업 정의</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>기본적으로 DBFS는 지정된 작업 영역의 모든 사용자가 액세스할 수 있고 API를 통해 액세스할 수 있는 파일 시스템입니다. IP 액세스 목록 또는 개인 네트워크 액세스를 사용하여 DBFS API 또는 Databricks CLI를 통해 데이터 액세스에 대한 액세스를 제한할 수 있으므로 반드시 주요 데이터 반출 문제는 아닙니다. 그러나 Azure Databricks의 사용이 증가하고 더 많은 사용자가 작업 영역에 참여함에 따라 해당 사용자는 DBFS에 저장된 모든 데이터에 액세스할 수 있으므로 원치 않는 정보 공유가 발생할 수 있습니다. Databricks는 고객이 프로덕션 데이터를 DBFS에 저장하지 않는 것을 권장합니다.</t>
+          <t>이를 위해 Azure RBAC를 사용합니다.</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3690,13 +3835,17 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+          <t>8126504b-b47a-4393-a080-427294798b15</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3707,18 +3856,18 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr"/>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>스토리지를 암호화하고 액세스를 제한합니다.</t>
+          <t>Microsoft Purview를 사용하여 데이터 관리 및 거버넌스를 수행하는 데 필요한 역할과 작업을 정의합니다. (데이터 맵 및 데이터 카탈로그에 대한 데이터 평면)</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>관리하는 스토리지 계정의 경우 스토리지 계정이 요구 사항에 따라 보호되도록 하는 것은 사용자의 책임입니다. 예를 들어 고객 관리형 키를 사용한 암호화, 스토리지 방화벽을 사용하여 신뢰할 수 있는 네트워크에 대한 액세스 제한, 익명 공용 액세스는 허용되지 않음 등이 있습니다</t>
+          <t>이를 위해 Microsoft Purview 역할을 사용합니다.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -3734,7 +3883,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3742,7 +3891,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3753,20 +3902,16 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>데이터 보호</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr"/>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>관리 서비스 및 작업 영역 스토리지에 대한 고객 관리형 키 추가Add a customer-managed key for managed services and workspace storage</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Notebook, 비밀, Databricks SQL 쿼리 및 Databricks SQL 쿼리 기록과 같은 Azure Databricks 컨트롤 플레인 내에 저장된 선택 데이터 및 DBFS에 사용되는 루트 스토리지 계정에 대한 고객 관리형 키를 추가합니다. Azure Databricks는 진행 중인 작업을 위해 이 키에 액세스해야 합니다. 키에 대한 액세스를 취소하여 Azure Databricks가 컨트롤 플레인(또는 백업) 내에서 암호화된 데이터에 액세스하지 못하도록 할 수 있습니다. 이는 작업 공간이 기능을 멈추는 핵 옵션과 같지만 극한 상황에 대한 비상 제어를 제공합니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다.</t>
-        </is>
-      </c>
+          <t>개별 사용자에게 역할을 할당하는 대신 Microsoft Entra 그룹에 역할을 할당합니다.</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3778,17 +3923,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3799,20 +3940,16 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>IP 액세스 목록을 활성화하여 특정 IP 주소에 대한 액세스를 제한합니다.</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">사용자 또는 API 클라이언트가 VPN 또는 사무실 네트워크와 같은 알려진 양호한 IP 주소 범위에서 오는지 확인하여 계정 콘솔 및 작업 영역 수준에서 Databricks에 인증할 수 있는 IP 주소를 제한하는 IP 액세스 목록을 구성합니다. 사용자가 VPN 연결을 끊을 때와 같이 잘못된 IP 주소로 이동하는 경우 설정된 사용자 세션이 작동하지 않습니다. </t>
-        </is>
-      </c>
+          <t>Azure Active Directory 권한 관리를 사용하여 액세스 패키지를 통해 Microsoft Entra 그룹에 대한 사용자 액세스를 매핑합니다.</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3826,7 +3963,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -3834,7 +3971,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3845,23 +3982,19 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>ID 및 액세스 관리</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr"/>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Private Link를 구성하고 사용하여 Azure 리소스에 액세스합니다.</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure Private Link는 한 Azure 환경에서 다른 환경으로의 프라이빗 네트워크 경로를 제공합니다. Private Link는 Azure Databricks 사용자와 컨트롤 플레인 간에, 그리고 컨트롤 플레인과 데이터 플레인 사이에도 구성할 수 있습니다. Databricks 사용자와 컨트롤 플레인 간에 Private Link는 인바운드 요청의 원본을 제한하는 강력한 컨트롤을 제공합니다. 회사가 이미 Azure 환경을 통해 트래픽을 라우팅하는 경우 사용자와 Azure Databricks 컨트롤 플레인 간의 통신이 공용 IP 주소를 트래버스하지 않도록 Private Link를 사용할 수 있습니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다. Azure Private Link를 사용하여 Azure Databricks에서 Azure 리소스로 연결합니다. Private Link는 다음을 보장합니다.</t>
-        </is>
-      </c>
+          <t>Microsoft Purview 사용자, 특히 컬렉션 관리자, 데이터 원본 관리자 또는 데이터 큐레이터와 같은 권한 있는 역할이 있는 사용자에 대해 다단계 인증을 적용합니다.</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3870,17 +4003,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3889,561 +4018,1386 @@
       <c r="P74" s="25" t="n"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
+      <c r="A75" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B75" s="21" t="inlineStr"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Entra ID를 사용하여 모든 사용자, Entra에 등록된 보안 그룹, 서비스 주체 및 Microsoft Purview의 컬렉션 내 관리 ID에 인증 및 권한 부여를 제공합니다.</t>
+        </is>
+      </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
-      <c r="L75" s="25" t="n"/>
+      <c r="L75" s="25" t="inlineStr">
+        <is>
+          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+        </is>
+      </c>
       <c r="M75" s="25" t="n"/>
       <c r="N75" s="25" t="n"/>
       <c r="O75" s="25" t="n"/>
       <c r="P75" s="25" t="n"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="21" t="n"/>
-      <c r="C76" s="21" t="n"/>
+      <c r="A76" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B76" s="21" t="inlineStr"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>Least Privilege 모델을 정의하고 권한 있는 계정의 노출을 줄입니다.</t>
+        </is>
+      </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="25" t="n"/>
+      <c r="L76" s="25" t="inlineStr">
+        <is>
+          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+        </is>
+      </c>
       <c r="M76" s="25" t="n"/>
       <c r="N76" s="25" t="n"/>
       <c r="O76" s="25" t="n"/>
       <c r="P76" s="25" t="n"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="21" t="n"/>
-      <c r="C77" s="21" t="n"/>
+      <c r="A77" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B77" s="21" t="inlineStr"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>Private Link 서비스를 사용하여 엔드투엔드 네트워크 격리를 사용하도록 설정합니다. (Microsoft Purview 데이터 맵)</t>
+        </is>
+      </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
-      <c r="L77" s="25" t="n"/>
+      <c r="L77" s="25" t="inlineStr">
+        <is>
+          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+        </is>
+      </c>
       <c r="M77" s="25" t="n"/>
       <c r="N77" s="25" t="n"/>
       <c r="O77" s="25" t="n"/>
       <c r="P77" s="25" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="21" t="n"/>
-      <c r="C78" s="21" t="n"/>
+      <c r="A78" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B78" s="21" t="inlineStr"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview 방화벽을 사용하여 공용 액세스를 사용하지 않도록 설정합니다. (Microsoft Purview 데이터 맵)</t>
+        </is>
+      </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="n"/>
+      <c r="H78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+        </is>
+      </c>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
-      <c r="L78" s="25" t="n"/>
+      <c r="L78" s="25" t="inlineStr">
+        <is>
+          <t>418db612-8126-4504-ab47-a393a0804272</t>
+        </is>
+      </c>
       <c r="M78" s="25" t="n"/>
       <c r="N78" s="25" t="n"/>
       <c r="O78" s="25" t="n"/>
       <c r="P78" s="25" t="n"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="21" t="n"/>
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B79" s="21" t="inlineStr"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>Azure 데이터 원본 프라이빗 엔드포인트, Microsoft Purview 프라이빗 엔드포인트 및 자체 호스팅 런타임 VM이 배포되는 서브넷에 대한 NSG(네트워크 보안 그룹) 규칙을 배포합니다. (Microsoft Purview 데이터 맵)</t>
+        </is>
+      </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="n"/>
+      <c r="H79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="25" t="n"/>
+      <c r="L79" s="25" t="inlineStr">
+        <is>
+          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+        </is>
+      </c>
       <c r="M79" s="25" t="n"/>
       <c r="N79" s="25" t="n"/>
       <c r="O79" s="25" t="n"/>
       <c r="P79" s="25" t="n"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="21" t="n"/>
-      <c r="C80" s="21" t="n"/>
+      <c r="A80" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B80" s="21" t="inlineStr"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 검사 및 네트워크 필터링을 위한 Azure Firewall과 같은 네트워크 가상 어플라이언스에서 관리하는 프라이빗 엔드포인트를 사용하여 Microsoft Purview를 구현합니다. (Microsoft Purview 데이터 맵)</t>
+        </is>
+      </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="n"/>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+        </is>
+      </c>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
-      <c r="L80" s="25" t="n"/>
+      <c r="L80" s="25" t="inlineStr">
+        <is>
+          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+        </is>
+      </c>
       <c r="M80" s="25" t="n"/>
       <c r="N80" s="25" t="n"/>
       <c r="O80" s="25" t="n"/>
       <c r="P80" s="25" t="n"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="A81" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B81" s="21" t="inlineStr"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview 계정에 대한 프라이빗 엔드포인트를 배포하여 또 다른 보안 계층을 추가하면 가상 네트워크 내에서 시작된 클라이언트 호출만 Microsoft Purview 계정에 액세스할 수 있습니다</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="inlineStr">
+        <is>
+          <t>이 프라이빗 엔드포인트는 포털 프라이빗 엔드포인트의 필수 구성 요소이기도 합니다. 프라이빗 네트워크를 사용하여 Microsoft Purview 거버넌스 포털에 연결할 수 있도록 하려면 Microsoft Purview 포털 프라이빗 엔드포인트가 필요합니다. Microsoft Purview는 수집 프라이빗 엔드포인트를 사용하여 Azure 또는 온-프레미스 환경에서 데이터 원본을 검사할 수 있습니다. 프라이빗 엔드포인트 사용에 대한 제한 사항 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+        </is>
+      </c>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="25" t="n"/>
+      <c r="L81" s="25" t="inlineStr">
+        <is>
+          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+        </is>
+      </c>
       <c r="M81" s="25" t="n"/>
       <c r="N81" s="25" t="n"/>
       <c r="O81" s="25" t="n"/>
       <c r="P81" s="25" t="n"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="21" t="n"/>
-      <c r="C82" s="21" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="A82" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B82" s="21" t="inlineStr"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview 방화벽을 사용하여 공용 액세스 차단</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access. 검토해야 할 제한 사항: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
-      <c r="L82" s="25" t="n"/>
+      <c r="L82" s="25" t="inlineStr">
+        <is>
+          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+        </is>
+      </c>
       <c r="M82" s="25" t="n"/>
       <c r="N82" s="25" t="n"/>
       <c r="O82" s="25" t="n"/>
       <c r="P82" s="25" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="21" t="n"/>
-      <c r="C83" s="21" t="n"/>
+      <c r="A83" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안</t>
+        </is>
+      </c>
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 보안 그룹을 사용하여 Azure 가상 네트워크의 Azure 리소스에서 들어오고 나가는 네트워크 트래픽 필터링Use Network Security Groups to filter network traffic into Azure resources in an Azure virtual network</t>
+        </is>
+      </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="n"/>
+      <c r="H83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="25" t="n"/>
+      <c r="L83" s="25" t="inlineStr">
+        <is>
+          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+        </is>
+      </c>
       <c r="M83" s="25" t="n"/>
       <c r="N83" s="25" t="n"/>
       <c r="O83" s="25" t="n"/>
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">온-프레미스 vnet의 경계를 벗어날 수 없는 중요한 데이터가 있는 경우 회사 vnet 내에서 SHIR VM을 사용하여 메타데이터를 추출하는 것이 좋습니다 </t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
+        </is>
+      </c>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
-      <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Azure RBAC를 사용하여 스토리지 계정(MS에서 관리하지 않음)의 액세스를 의도한 사용자로만 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="inlineStr">
+        <is>
+          <t>메타데이터는 추출되어 Microsoft Purview 데이터 맵에 저장되며, Purview 계정에 관리 스토리지 계정을 사용하지 않는 경우 모든 사용자가 액세스할 수 있도록 열려 있으므로 적절한 RBAC를 구현하고 의도된 사용자에게만 데이터 액세스를 제한합니다. 2023년 12월 15일 이후에 배포된 계정(또는 API 버전 2023-05-01-preview 이후를 사용하여 배포된 계정)에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>미사용 데이터는 Microsoft 관리형 키로 암호화됩니다.</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>전송 중인 데이터는 TLS 1.3으로 암호화됩니다.</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>관리 ID를 사용하지 않거나 암호 필요 메서드가 없는 경우 항상 Azure Key Vault를 사용하여 모든 자격 증명을 저장합니다.</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>우발적인 삭제에 대한 보호</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>리소스 잠금을 적용하여 Microsoft Purview 계정의 실수로 삭제되는 것을 방지합니다.</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
-      <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="21" t="inlineStr"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 Microsoft Entra 테넌트, Azure 구독 및 Microsoft Purview 계정에 대한 비상 전략을 계획합니다.</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>추가 보안 권장 사항</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft 365 및 클라우드용 Microsoft Defender와 통합</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
-      <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>Least Privilege 모델을 정의하고 권한 있는 계정의 노출을 줄입니다.</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>관리자 계정을 일반 사용자 계정과 구분합니다.</t>
+        </is>
+      </c>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
-      <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>Single Sign-On 및 통합 로그인을 구성합니다. Multi-Factor Authentication을 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks는 관리자가 사용자가 Azure Databricks에 로그인할 수 있는 위치와 시기를 제어할 수 있는 Microsoft Entra ID 조건부 액세스를 지원합니다. 조건부 액세스 정책은 회사 네트워크에 대한 로그인을 제한하거나 MFA(다단계 인증)를 요구할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
-      <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>토큰 관리를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>고객은 토큰 관리 API 또는 UI 컨트롤을 사용하여 REST API 인증을 위해 PAT(개인용 액세스 토큰)를 사용하거나 사용하지 않도록 설정하고, PAT를 사용할 수 있는 사용자를 제한하고, 새 토큰의 최대 수명을 설정하고, 기존 토큰을 관리할 수 있습니다. 보안이 매우 안전한 고객은 일반적으로 작업 영역의 새 토큰에 대한 최대 토큰 수명을 프로비전합니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
-      <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>일반 사용자 계정과 관리자 계정 분리</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>Databricks 플랫폼의 일반 사용자이기도 한 Databricks 관리자가 있는 경우(예: 플랫폼을 관리하고 데이터 엔지니어링 작업도 수행하는 수석 데이터 엔지니어가 있는 경우) Databricks는 관리 작업을 위해 별도의 계정을 만드는 것이 좋습니다. Azure RBAC 모델의 일부로, 배포된 Azure Databricks 작업 영역에 대한 리소스 그룹에 대한 기여자 이상의 권한이 부여된 사용자는 해당 작업 영역에 로그인할 때 자동으로 관리자가 된다는 점에 유의해야 합니다. 따라서 위에서 설명한 것과 동일한 고려 사항을 Azure Portal 사용자에게도 적용해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>사용자 및 그룹의 SCIM 동기화.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM(System for Cross-domain Identity Management)을 사용하면 Microsoft Entra ID에서 Azure Databricks로 사용자 및 그룹을 동기화할 수 있습니다. 이 방법에는 세 가지 주요 이점이 있습니다. 1. 사용자를 제거하면 사용자가 Databricks에서 자동으로 제거됩니다. 2. SCIM을 통해 사용자를 일시적으로 비활성화할 수도 있습니다. 고객은 계정이 손상되었을 수 있으며 조사가 필요하다고 생각하는 시나리오에 이 기능을 사용했습니다 3. 그룹이 자동으로 동기화됨 Azure Databricks에 대해 SCIM을 구성하는 방법에 대한 자세한 지침은 설명서를 참조하세요. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다</t>
+        </is>
+      </c>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
-      <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>클러스터 생성 권한을 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="inlineStr">
+        <is>
+          <t>관리자는 클러스터 정책 또는 이전 클러스터 ACL을 사용하여 조직 내에서 클러스터를 생성할 수 있는 사용자 또는 그룹을 정의할 수 있습니다. 클러스터 ACL을 사용하면 지정된 클러스터에 노트북을 연결할 수 있는 사용자를 지정할 수 있습니다. 사용자가 표준 모드 클러스터에 이미 연결된 Notebook을 공유하는 경우 수신자도 해당 클러스터에서 코드를 실행할 수 있습니다. 이는 사용자 격리를 적용하는 클러스터(SQL 웨어하우스, 테이블 ACL 클러스터와의 높은 동시성, 자격 증명 통과 클러스터의 높은 동시성)에는 적용되지 않습니다. Unity 카탈로그를 사용하는 고객은 단일 사용자 클러스터를 활성화하여 격리 클러스터를 적용할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
-      <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="21" t="inlineStr"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>작업 영역 관리자 제한</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>계정 관리자는 RestrictWorkspaceAdmins라는 작업 영역 설정을 구성하여 작업 영역 관리자가 작업 소유자를 자신으로만 변경하고 작업 실행 설정을 서비스 주체 사용자 역할이 있는 서비스 주체로 제한할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault에 암호, 비밀 저장Store passwords, secrets in Azure Key Vault</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>고객이 Azure Key Vault를 사용하여 비밀을 저장하더라도 Azure Databricks 내에서 액세스 제어를 정의해야 합니다. 이는 Azure Databricks 작업 영역의 모든 사용자에 대한 비밀을 검색하는 데 동일한 서비스 ID가 사용되기 때문입니다.</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="21" t="inlineStr"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>키를 주기적으로 사용하는 경우 키를 재생/회전합니다.</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>사용자 격리를 지원하는 클러스터를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>사용자 격리가 있는 클러스터에는 각 사용자가 클러스터 호스트에서 권한이 없는 다른 사용자 계정으로 실행되는 적용이 포함됩니다. 또한 언어는 격리된 방식으로 구현할 수 있는 언어(SQL 및 Python)로 제한되며, Spark API는 격리로부터 안전하다고 생각되는 언어의 허용 목록에 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>ID 및 액세스 관리</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>서비스 주체를 사용하여 프로덕션 작업을 실행합니다. 워크스페이스 레벨(ACL), 계정 레벨(RBAC) 및 데이터 레벨(Unity 카탈로그) 보안 컨트롤에 대한 적절한 액세스 제어 사용</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>프로덕션 워크로드를 개별 사용자 계정에 연결하는 것은 보안 모범 사례에 위배되므로 Databricks 내에서 서비스 주체를 구성하는 것이 좋습니다. 서비스 원칙은 관리자와 사용자 작업을 워크로드에서 분리하고 사용자가 조직을 떠날 경우 워크로드가 영향을 받지 않도록 합니다. Databricks를 사용하면 서비스 주체로 실행되고 서비스 주체에 대한 개인용 액세스 토큰을 생성하도록 작업을 구성할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
-      <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>프로덕션 데이터를 DBFS에 저장하지 마십시오.</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>기본적으로 DBFS는 지정된 작업 영역의 모든 사용자가 액세스할 수 있고 API를 통해 액세스할 수 있는 파일 시스템입니다. IP 액세스 목록 또는 개인 네트워크 액세스를 사용하여 DBFS API 또는 Databricks CLI를 통해 데이터 액세스에 대한 액세스를 제한할 수 있으므로 반드시 주요 데이터 반출 문제는 아닙니다. 그러나 Azure Databricks의 사용이 증가하고 더 많은 사용자가 작업 영역에 참여함에 따라 해당 사용자는 DBFS에 저장된 모든 데이터에 액세스할 수 있으므로 원치 않는 정보 공유가 발생할 수 있습니다. Databricks는 고객이 프로덕션 데이터를 DBFS에 저장하지 않는 것을 권장합니다.</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
-      <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>스토리지를 암호화하고 액세스를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>관리하는 스토리지 계정의 경우 스토리지 계정이 요구 사항에 따라 보호되도록 하는 것은 사용자의 책임입니다. 예를 들어 고객 관리형 키를 사용한 암호화, 스토리지 방화벽을 사용하여 신뢰할 수 있는 네트워크에 대한 액세스 제한, 익명 공용 액세스는 허용되지 않음 등이 있습니다</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>데이터 보호</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>관리 서비스 및 작업 영역 스토리지에 대한 고객 관리형 키 추가Add a customer-managed key for managed services and workspace storage</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>Notebook, 비밀, Databricks SQL 쿼리 및 Databricks SQL 쿼리 기록과 같은 Azure Databricks 컨트롤 플레인 내에 저장된 선택 데이터 및 DBFS에 사용되는 루트 스토리지 계정에 대한 고객 관리형 키를 추가합니다. Azure Databricks는 진행 중인 작업을 위해 이 키에 액세스해야 합니다. 키에 대한 액세스를 취소하여 Azure Databricks가 컨트롤 플레인(또는 백업) 내에서 암호화된 데이터에 액세스하지 못하도록 할 수 있습니다. 이는 작업 공간이 기능을 멈추는 핵 옵션과 같지만 극한 상황에 대한 비상 제어를 제공합니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
-      <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>IP 액세스 목록을 활성화하여 특정 IP 주소에 대한 액세스를 제한합니다.</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">사용자 또는 API 클라이언트가 VPN 또는 사무실 네트워크와 같은 알려진 양호한 IP 주소 범위에서 오는지 확인하여 계정 콘솔 및 작업 영역 수준에서 Databricks에 인증할 수 있는 IP 주소를 제한하는 IP 액세스 목록을 구성합니다. 사용자가 VPN 연결을 끊을 때와 같이 잘못된 IP 주소로 이동하는 경우 설정된 사용자 세션이 작동하지 않습니다. </t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
-      <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link를 구성하고 사용하여 Azure 리소스에 액세스합니다.</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link는 한 Azure 환경에서 다른 환경으로의 프라이빗 네트워크 경로를 제공합니다. Private Link는 Azure Databricks 사용자와 컨트롤 플레인 간에, 그리고 컨트롤 플레인과 데이터 플레인 사이에도 구성할 수 있습니다. Databricks 사용자와 컨트롤 플레인 간에 Private Link는 인바운드 요청의 원본을 제한하는 강력한 컨트롤을 제공합니다. 회사가 이미 Azure 환경을 통해 트래픽을 라우팅하는 경우 사용자와 Azure Databricks 컨트롤 플레인 간의 통신이 공용 IP 주소를 트래버스하지 않도록 Private Link를 사용할 수 있습니다. 이 기능을 사용하려면 프리미엄 가격 책정 계층이 필요합니다. Azure Private Link를 사용하여 Azure Databricks에서 Azure 리소스로 연결합니다. Private Link는 다음을 보장합니다.</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
@@ -7518,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/datasecurity_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.ko.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
